--- a/reports/_PIL_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-10-08_18_.xlsx
+++ b/reports/_PIL_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-10-08_18_.xlsx
@@ -385,12 +385,13 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -531,12 +532,13 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -556,7 +558,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -677,12 +679,13 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -696,7 +699,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE7"/>
+  <dimension ref="A1:AE8"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -764,212 +767,220 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Total number of conatiners:1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>Container Number</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Size</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>Height</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>Company</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>Agent</t>
         </is>
       </c>
-      <c r="H6" s="4" t="inlineStr">
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>MLO</t>
         </is>
       </c>
-      <c r="I6" s="4" t="inlineStr">
+      <c r="I7" s="4" t="inlineStr">
         <is>
           <t>Import Vessel</t>
         </is>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>Rotation #</t>
         </is>
       </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="K7" s="4" t="inlineStr">
         <is>
           <t>BE #</t>
         </is>
       </c>
-      <c r="L6" s="4" t="inlineStr">
+      <c r="L7" s="4" t="inlineStr">
         <is>
           <t>BL #</t>
         </is>
       </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="M7" s="4" t="inlineStr">
         <is>
           <t>Line #</t>
         </is>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="N7" s="4" t="inlineStr">
         <is>
           <t>Importer</t>
         </is>
       </c>
-      <c r="O6" s="4" t="inlineStr">
+      <c r="O7" s="4" t="inlineStr">
         <is>
           <t>CNF</t>
         </is>
       </c>
-      <c r="P6" s="4" t="inlineStr">
+      <c r="P7" s="4" t="inlineStr">
         <is>
           <t>EIR #</t>
         </is>
       </c>
-      <c r="Q6" s="4" t="inlineStr">
+      <c r="Q7" s="4" t="inlineStr">
         <is>
           <t>Commodity</t>
         </is>
       </c>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="R7" s="4" t="inlineStr">
         <is>
           <t>Seal Number</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="S7" s="4" t="inlineStr">
         <is>
           <t>Amended Seal No</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T7" s="4" t="inlineStr">
         <is>
           <t>Location - From</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="U7" s="4" t="inlineStr">
         <is>
           <t>Depo Loc</t>
         </is>
       </c>
-      <c r="V6" s="4" t="inlineStr">
+      <c r="V7" s="4" t="inlineStr">
         <is>
           <t>Issue Date</t>
         </is>
       </c>
-      <c r="W6" s="4" t="inlineStr">
+      <c r="W7" s="4" t="inlineStr">
         <is>
           <t>In Date</t>
         </is>
       </c>
-      <c r="X6" s="4" t="inlineStr">
+      <c r="X7" s="4" t="inlineStr">
         <is>
           <t>Unstuffing Date</t>
         </is>
       </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="Y7" s="4" t="inlineStr">
         <is>
           <t>Container Condition</t>
         </is>
       </c>
-      <c r="Z6" s="4" t="inlineStr">
+      <c r="Z7" s="4" t="inlineStr">
         <is>
           <t>Damage Area</t>
         </is>
       </c>
-      <c r="AA6" s="4" t="inlineStr">
+      <c r="AA7" s="4" t="inlineStr">
         <is>
           <t>Damage Part</t>
         </is>
       </c>
-      <c r="AB6" s="4" t="inlineStr">
+      <c r="AB7" s="4" t="inlineStr">
         <is>
           <t>Damage Description</t>
         </is>
       </c>
-      <c r="AC6" s="4" t="inlineStr">
+      <c r="AC7" s="4" t="inlineStr">
         <is>
           <t>In Transport</t>
         </is>
       </c>
-      <c r="AD6" s="4" t="inlineStr">
+      <c r="AD7" s="4" t="inlineStr">
         <is>
           <t>In Trailer</t>
         </is>
       </c>
-      <c r="AE6" s="4" t="inlineStr">
+      <c r="AE7" s="4" t="inlineStr">
         <is>
           <t>Trailer #</t>
         </is>
       </c>
-      <c r="AF6" s="4" t="inlineStr">
+      <c r="AF7" s="4" t="inlineStr">
         <is>
           <t>In Remarks</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
-      <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
-      <c r="L7" s="0"/>
-      <c r="M7" s="0"/>
-      <c r="N7" s="0"/>
-      <c r="O7" s="0"/>
-      <c r="P7" s="0"/>
-      <c r="Q7" s="0"/>
-      <c r="R7" s="0"/>
-      <c r="S7" s="0"/>
-      <c r="T7" s="0"/>
-      <c r="U7" s="0"/>
-      <c r="V7" s="0"/>
-      <c r="W7" s="0"/>
-      <c r="X7" s="0"/>
-      <c r="Y7" s="0"/>
-      <c r="Z7" s="0"/>
-      <c r="AA7" s="0"/>
-      <c r="AB7" s="0"/>
-      <c r="AC7" s="0"/>
-      <c r="AD7" s="0"/>
-      <c r="AE7" s="0"/>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0"/>
+      <c r="X8" s="0"/>
+      <c r="Y8" s="0"/>
+      <c r="Z8" s="0"/>
+      <c r="AA8" s="0"/>
+      <c r="AB8" s="0"/>
+      <c r="AC8" s="0"/>
+      <c r="AD8" s="0"/>
+      <c r="AE8" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -1110,12 +1121,13 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -1129,7 +1141,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AH7"/>
+  <dimension ref="A1:AH8"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -1199,215 +1211,223 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Total number of conatiners:1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>Container Number</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Size</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>Company</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>Agent</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>MLO</t>
         </is>
       </c>
-      <c r="H6" s="4" t="inlineStr">
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>Import Vessel</t>
         </is>
       </c>
-      <c r="I6" s="4" t="inlineStr">
+      <c r="I7" s="4" t="inlineStr">
         <is>
           <t>Rotation #</t>
         </is>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>Importer</t>
         </is>
       </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="K7" s="4" t="inlineStr">
         <is>
           <t>CNFCommodity</t>
         </is>
       </c>
-      <c r="L6" s="4" t="inlineStr">
+      <c r="L7" s="4" t="inlineStr">
         <is>
           <t>Current Depo</t>
         </is>
       </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="M7" s="4" t="inlineStr">
         <is>
           <t>Seal Number</t>
         </is>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="N7" s="4" t="inlineStr">
         <is>
           <t>Amended Seal No</t>
         </is>
       </c>
-      <c r="O6" s="4" t="inlineStr">
+      <c r="O7" s="4" t="inlineStr">
         <is>
           <t>EIR #</t>
         </is>
       </c>
-      <c r="P6" s="4" t="inlineStr">
+      <c r="P7" s="4" t="inlineStr">
         <is>
           <t>BE #</t>
         </is>
       </c>
-      <c r="Q6" s="4" t="inlineStr">
+      <c r="Q7" s="4" t="inlineStr">
         <is>
           <t>BL #</t>
         </is>
       </c>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="R7" s="4" t="inlineStr">
         <is>
           <t>Line #</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="S7" s="4" t="inlineStr">
         <is>
           <t>Location - From</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T7" s="4" t="inlineStr">
         <is>
           <t>Depo Loc</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="U7" s="4" t="inlineStr">
         <is>
           <t>Issue Date</t>
         </is>
       </c>
-      <c r="V6" s="4" t="inlineStr">
+      <c r="V7" s="4" t="inlineStr">
         <is>
           <t>In Date</t>
         </is>
       </c>
-      <c r="W6" s="4" t="inlineStr">
+      <c r="W7" s="4" t="inlineStr">
         <is>
           <t>Out Date</t>
         </is>
       </c>
-      <c r="X6" s="4" t="inlineStr">
+      <c r="X7" s="4" t="inlineStr">
         <is>
           <t>Out Location</t>
         </is>
       </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="Y7" s="4" t="inlineStr">
         <is>
           <t>Container Condition</t>
         </is>
       </c>
-      <c r="Z6" s="4" t="inlineStr">
+      <c r="Z7" s="4" t="inlineStr">
         <is>
           <t>Damage Area</t>
         </is>
       </c>
-      <c r="AA6" s="4" t="inlineStr">
+      <c r="AA7" s="4" t="inlineStr">
         <is>
           <t>Damage Part</t>
         </is>
       </c>
-      <c r="AB6" s="4" t="inlineStr">
+      <c r="AB7" s="4" t="inlineStr">
         <is>
           <t>Damage Description</t>
         </is>
       </c>
-      <c r="AC6" s="4" t="inlineStr">
+      <c r="AC7" s="4" t="inlineStr">
         <is>
           <t>Total Lot</t>
         </is>
       </c>
-      <c r="AD6" s="4" t="inlineStr">
+      <c r="AD7" s="4" t="inlineStr">
         <is>
           <t>Total Weight</t>
         </is>
       </c>
-      <c r="AE6" s="4" t="inlineStr">
+      <c r="AE7" s="4" t="inlineStr">
         <is>
           <t>Out Transport</t>
         </is>
       </c>
-      <c r="AF6" s="4" t="inlineStr">
+      <c r="AF7" s="4" t="inlineStr">
         <is>
           <t>Out Remarks</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
-      <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
-      <c r="L7" s="0"/>
-      <c r="M7" s="0"/>
-      <c r="N7" s="0"/>
-      <c r="O7" s="0"/>
-      <c r="P7" s="0"/>
-      <c r="Q7" s="0"/>
-      <c r="R7" s="0"/>
-      <c r="S7" s="0"/>
-      <c r="T7" s="0"/>
-      <c r="U7" s="0"/>
-      <c r="V7" s="0"/>
-      <c r="W7" s="0"/>
-      <c r="X7" s="0"/>
-      <c r="Y7" s="0"/>
-      <c r="Z7" s="0"/>
-      <c r="AA7" s="0"/>
-      <c r="AB7" s="0"/>
-      <c r="AC7" s="0"/>
-      <c r="AD7" s="0"/>
-      <c r="AE7" s="0"/>
-      <c r="AF7" s="0"/>
-      <c r="AG7" s="0"/>
-      <c r="AH7" s="0"/>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0"/>
+      <c r="X8" s="0"/>
+      <c r="Y8" s="0"/>
+      <c r="Z8" s="0"/>
+      <c r="AA8" s="0"/>
+      <c r="AB8" s="0"/>
+      <c r="AC8" s="0"/>
+      <c r="AD8" s="0"/>
+      <c r="AE8" s="0"/>
+      <c r="AF8" s="0"/>
+      <c r="AG8" s="0"/>
+      <c r="AH8" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -1548,12 +1568,13 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -1567,7 +1588,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC70"/>
+  <dimension ref="A1:AC71"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -1632,270 +1653,160 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Total number of conatiners:64</t>
+        </is>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>Container Number</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Size</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>Company</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>Agent</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>MLO</t>
         </is>
       </c>
-      <c r="H6" s="4" t="inlineStr">
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>Import Vessel</t>
         </is>
       </c>
-      <c r="I6" s="4" t="inlineStr">
+      <c r="I7" s="4" t="inlineStr">
         <is>
           <t>Rotation #</t>
         </is>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>Importer</t>
         </is>
       </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="K7" s="4" t="inlineStr">
         <is>
           <t>Container Condition</t>
         </is>
       </c>
-      <c r="L6" s="4" t="inlineStr">
+      <c r="L7" s="4" t="inlineStr">
         <is>
           <t>Damage Area</t>
         </is>
       </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="M7" s="4" t="inlineStr">
         <is>
           <t>Damage Part</t>
         </is>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="N7" s="4" t="inlineStr">
         <is>
           <t>Damage Description</t>
         </is>
       </c>
-      <c r="O6" s="4" t="inlineStr">
+      <c r="O7" s="4" t="inlineStr">
         <is>
           <t>CNF</t>
         </is>
       </c>
-      <c r="P6" s="4" t="inlineStr">
+      <c r="P7" s="4" t="inlineStr">
         <is>
           <t>Commodity</t>
         </is>
       </c>
-      <c r="Q6" s="4" t="inlineStr">
+      <c r="Q7" s="4" t="inlineStr">
         <is>
           <t>Seal Number</t>
         </is>
       </c>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="R7" s="4" t="inlineStr">
         <is>
           <t>Amended Seal No</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="S7" s="4" t="inlineStr">
         <is>
           <t>EIR #</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T7" s="4" t="inlineStr">
         <is>
           <t>Issue Date</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="U7" s="4" t="inlineStr">
         <is>
           <t>In Date</t>
         </is>
       </c>
-      <c r="V6" s="4" t="inlineStr">
+      <c r="V7" s="4" t="inlineStr">
         <is>
           <t>Location - From</t>
         </is>
       </c>
-      <c r="W6" s="4" t="inlineStr">
+      <c r="W7" s="4" t="inlineStr">
         <is>
           <t>Depo Loc</t>
         </is>
       </c>
-      <c r="X6" s="4" t="inlineStr">
+      <c r="X7" s="4" t="inlineStr">
         <is>
           <t>BE #</t>
         </is>
       </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="Y7" s="4" t="inlineStr">
         <is>
           <t>BL #</t>
         </is>
       </c>
-      <c r="Z6" s="4" t="inlineStr">
+      <c r="Z7" s="4" t="inlineStr">
         <is>
           <t>Line #</t>
         </is>
       </c>
-      <c r="AA6" s="4" t="inlineStr">
+      <c r="AA7" s="4" t="inlineStr">
         <is>
           <t>Trailer #</t>
         </is>
       </c>
-      <c r="AB6" s="4" t="inlineStr">
+      <c r="AB7" s="4" t="inlineStr">
         <is>
           <t>In Transport</t>
         </is>
       </c>
-      <c r="AC6" s="4" t="inlineStr">
+      <c r="AC7" s="4" t="inlineStr">
         <is>
           <t>In Remarks</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>8797</v>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>PCIU2129609</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="D7" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="F7" s="0" t="inlineStr">
-        <is>
-          <t>PIL</t>
-        </is>
-      </c>
-      <c r="G7" s="0" t="inlineStr">
-        <is>
-          <t>PIL</t>
-        </is>
-      </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>RISSEN</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>2014/735</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="inlineStr">
-        <is>
-          <t>SHISHIR KNITTING &amp; DYEING LIMITED</t>
-        </is>
-      </c>
-      <c r="K7" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="L7" s="0" t="inlineStr">
-        <is>
-          <t>DOORS</t>
-        </is>
-      </c>
-      <c r="M7" s="0"/>
-      <c r="N7" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT DOOR LOCK BAR BENT 01 PC </t>
-        </is>
-      </c>
-      <c r="O7" s="0"/>
-      <c r="P7" s="0" t="inlineStr">
-        <is>
-          <t>SODIUM SULPHATE</t>
-        </is>
-      </c>
-      <c r="Q7" s="0" t="inlineStr">
-        <is>
-          <t>W020120</t>
-        </is>
-      </c>
-      <c r="R7" s="0"/>
-      <c r="S7" s="0" t="inlineStr">
-        <is>
-          <t>2014-3581</t>
-        </is>
-      </c>
-      <c r="T7" s="0" t="d">
-        <v>2014-04-10T00:00:00</v>
-      </c>
-      <c r="U7" s="0" t="d">
-        <v>2014-04-12T00:00:00</v>
-      </c>
-      <c r="V7" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="W7" s="0" t="inlineStr">
-        <is>
-          <t>SAPL</t>
-        </is>
-      </c>
-      <c r="X7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="0" t="inlineStr">
-        <is>
-          <t>UQDCGPS1402415</t>
-        </is>
-      </c>
-      <c r="Z7" s="0" t="inlineStr">
-        <is>
-          <t>PIL-478</t>
-        </is>
-      </c>
-      <c r="AA7" s="0"/>
-      <c r="AB7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
@@ -1951,17 +1862,13 @@
       </c>
       <c r="L8" s="0" t="inlineStr">
         <is>
-          <t>PANELS</t>
-        </is>
-      </c>
-      <c r="M8" s="0" t="inlineStr">
-        <is>
-          <t>Right side panel </t>
-        </is>
-      </c>
+          <t>DOORS</t>
+        </is>
+      </c>
+      <c r="M8" s="0"/>
       <c r="N8" s="0" t="inlineStr">
         <is>
-          <t>INTERNAL PANEL DIRTY</t>
+          <t>RIGHT DOOR LOCK BAR BENT 01 PC </t>
         </is>
       </c>
       <c r="O8" s="0"/>
@@ -2072,17 +1979,17 @@
       </c>
       <c r="L9" s="0" t="inlineStr">
         <is>
-          <t>FLOORS</t>
+          <t>PANELS</t>
         </is>
       </c>
       <c r="M9" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD</t>
+          <t>Right side panel </t>
         </is>
       </c>
       <c r="N9" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY SODIUM SULPHATE DUST </t>
+          <t>INTERNAL PANEL DIRTY</t>
         </is>
       </c>
       <c r="O9" s="0"/>
@@ -2141,11 +2048,11 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>8798</v>
+        <v>8797</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>PCIU3783511</t>
+          <t>PCIU2129609</t>
         </is>
       </c>
       <c r="C10" s="0" t="n">
@@ -2188,12 +2095,24 @@
       </c>
       <c r="K10" s="0" t="inlineStr">
         <is>
-          <t>SOUND</t>
-        </is>
-      </c>
-      <c r="L10" s="0"/>
-      <c r="M10" s="0"/>
-      <c r="N10" s="0"/>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="L10" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS</t>
+        </is>
+      </c>
+      <c r="M10" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD</t>
+        </is>
+      </c>
+      <c r="N10" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY SODIUM SULPHATE DUST </t>
+        </is>
+      </c>
       <c r="O10" s="0"/>
       <c r="P10" s="0" t="inlineStr">
         <is>
@@ -2202,13 +2121,13 @@
       </c>
       <c r="Q10" s="0" t="inlineStr">
         <is>
-          <t>W020188</t>
+          <t>W020120</t>
         </is>
       </c>
       <c r="R10" s="0"/>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>2014-3583</t>
+          <t>2014-3581</t>
         </is>
       </c>
       <c r="T10" s="0" t="d">
@@ -2250,11 +2169,11 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>8799</v>
+        <v>8798</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>PCIU2795077</t>
+          <t>PCIU3783511</t>
         </is>
       </c>
       <c r="C11" s="0" t="n">
@@ -2311,13 +2230,13 @@
       </c>
       <c r="Q11" s="0" t="inlineStr">
         <is>
-          <t>W020121</t>
+          <t>W020188</t>
         </is>
       </c>
       <c r="R11" s="0"/>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>2014-3582</t>
+          <t>2014-3583</t>
         </is>
       </c>
       <c r="T11" s="0" t="d">
@@ -2359,11 +2278,11 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>8800</v>
+        <v>8799</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>PCIU1539527</t>
+          <t>PCIU2795077</t>
         </is>
       </c>
       <c r="C12" s="0" t="n">
@@ -2420,20 +2339,20 @@
       </c>
       <c r="Q12" s="0" t="inlineStr">
         <is>
-          <t>W020190</t>
+          <t>W020121</t>
         </is>
       </c>
       <c r="R12" s="0"/>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>2014-3580</t>
+          <t>2014-3582</t>
         </is>
       </c>
       <c r="T12" s="0" t="d">
         <v>2014-04-10T00:00:00</v>
       </c>
       <c r="U12" s="0" t="d">
-        <v>2014-04-13T00:00:00</v>
+        <v>2014-04-12T00:00:00</v>
       </c>
       <c r="V12" s="0" t="inlineStr">
         <is>
@@ -2468,24 +2387,24 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>9746</v>
+        <v>8800</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>PCIU8902233</t>
+          <t>PCIU1539527</t>
         </is>
       </c>
       <c r="C13" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E13" s="0" t="inlineStr">
         <is>
-          <t>SAPL-W</t>
+          <t>SAPL-E</t>
         </is>
       </c>
       <c r="F13" s="0" t="inlineStr">
@@ -2500,17 +2419,17 @@
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
-          <t>KOTA WANGI</t>
+          <t>RISSEN</t>
         </is>
       </c>
       <c r="I13" s="0" t="inlineStr">
         <is>
-          <t>3284/2017</t>
+          <t>2014/735</t>
         </is>
       </c>
       <c r="J13" s="0" t="inlineStr">
         <is>
-          <t>M/S ROBIUL INTERNATIONAL EXPORT &amp;</t>
+          <t>SHISHIR KNITTING &amp; DYEING LIMITED</t>
         </is>
       </c>
       <c r="K13" s="0" t="inlineStr">
@@ -2524,25 +2443,25 @@
       <c r="O13" s="0"/>
       <c r="P13" s="0" t="inlineStr">
         <is>
-          <t>SCRAP</t>
+          <t>SODIUM SULPHATE</t>
         </is>
       </c>
       <c r="Q13" s="0" t="inlineStr">
         <is>
-          <t>W0392558</t>
+          <t>W020190</t>
         </is>
       </c>
       <c r="R13" s="0"/>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>2017-22591</t>
+          <t>2014-3580</t>
         </is>
       </c>
       <c r="T13" s="0" t="d">
-        <v>2017-11-18T00:00:00</v>
+        <v>2014-04-10T00:00:00</v>
       </c>
       <c r="U13" s="0" t="d">
-        <v>2018-09-18T11:02:39.788</v>
+        <v>2014-04-13T00:00:00</v>
       </c>
       <c r="V13" s="0" t="inlineStr">
         <is>
@@ -2559,31 +2478,29 @@
       </c>
       <c r="Y13" s="0" t="inlineStr">
         <is>
-          <t>SEL700355400</t>
-        </is>
-      </c>
-      <c r="Z13" s="0" t="n">
-        <v>151</v>
-      </c>
-      <c r="AA13" s="0" t="inlineStr">
-        <is>
-          <t>PREVSERVER</t>
-        </is>
-      </c>
+          <t>UQDCGPS1402415</t>
+        </is>
+      </c>
+      <c r="Z13" s="0" t="inlineStr">
+        <is>
+          <t>PIL-478</t>
+        </is>
+      </c>
+      <c r="AA13" s="0"/>
       <c r="AB13" s="0" t="inlineStr">
         <is>
-          <t>PREV SERVER</t>
+          <t/>
         </is>
       </c>
       <c r="AC13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>8841</v>
+        <v>9746</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>PCIU8746064</t>
+          <t>PCIU8902233</t>
         </is>
       </c>
       <c r="C14" s="0" t="n">
@@ -2640,20 +2557,20 @@
       </c>
       <c r="Q14" s="0" t="inlineStr">
         <is>
-          <t>W0392469</t>
+          <t>W0392558</t>
         </is>
       </c>
       <c r="R14" s="0"/>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>2017-22543</t>
+          <t>2017-22591</t>
         </is>
       </c>
       <c r="T14" s="0" t="d">
         <v>2017-11-18T00:00:00</v>
       </c>
       <c r="U14" s="0" t="d">
-        <v>2017-11-19T00:00:00</v>
+        <v>2018-09-18T11:02:39.788</v>
       </c>
       <c r="V14" s="0" t="inlineStr">
         <is>
@@ -2676,21 +2593,25 @@
       <c r="Z14" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="AA14" s="0"/>
+      <c r="AA14" s="0" t="inlineStr">
+        <is>
+          <t>PREVSERVER</t>
+        </is>
+      </c>
       <c r="AB14" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>PREV SERVER</t>
         </is>
       </c>
       <c r="AC14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>8842</v>
+        <v>8841</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>PCIU8740615</t>
+          <t>PCIU8746064</t>
         </is>
       </c>
       <c r="C15" s="0" t="n">
@@ -2747,13 +2668,13 @@
       </c>
       <c r="Q15" s="0" t="inlineStr">
         <is>
-          <t>W0392510</t>
+          <t>W0392469</t>
         </is>
       </c>
       <c r="R15" s="0"/>
       <c r="S15" s="0" t="inlineStr">
         <is>
-          <t>2017-22547</t>
+          <t>2017-22543</t>
         </is>
       </c>
       <c r="T15" s="0" t="d">
@@ -2793,11 +2714,11 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>8843</v>
+        <v>8842</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>PCIU8994461</t>
+          <t>PCIU8740615</t>
         </is>
       </c>
       <c r="C16" s="0" t="n">
@@ -2854,13 +2775,13 @@
       </c>
       <c r="Q16" s="0" t="inlineStr">
         <is>
-          <t>W0392468</t>
+          <t>W0392510</t>
         </is>
       </c>
       <c r="R16" s="0"/>
       <c r="S16" s="0" t="inlineStr">
         <is>
-          <t>2017-22546</t>
+          <t>2017-22547</t>
         </is>
       </c>
       <c r="T16" s="0" t="d">
@@ -2900,11 +2821,11 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>8844</v>
+        <v>8843</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>PCIU9052155</t>
+          <t>PCIU8994461</t>
         </is>
       </c>
       <c r="C17" s="0" t="n">
@@ -2961,20 +2882,20 @@
       </c>
       <c r="Q17" s="0" t="inlineStr">
         <is>
-          <t>W0392567</t>
+          <t>W0392468</t>
         </is>
       </c>
       <c r="R17" s="0"/>
       <c r="S17" s="0" t="inlineStr">
         <is>
-          <t>2017-22553</t>
+          <t>2017-22546</t>
         </is>
       </c>
       <c r="T17" s="0" t="d">
         <v>2017-11-18T00:00:00</v>
       </c>
       <c r="U17" s="0" t="d">
-        <v>2017-11-20T00:00:00</v>
+        <v>2017-11-19T00:00:00</v>
       </c>
       <c r="V17" s="0" t="inlineStr">
         <is>
@@ -2991,11 +2912,11 @@
       </c>
       <c r="Y17" s="0" t="inlineStr">
         <is>
-          <t>SEL700355401</t>
+          <t>SEL700355400</t>
         </is>
       </c>
       <c r="Z17" s="0" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA17" s="0"/>
       <c r="AB17" s="0" t="inlineStr">
@@ -3007,19 +2928,19 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>9014</v>
+        <v>8844</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>PCIU1304498</t>
+          <t>PCIU9052155</t>
         </is>
       </c>
       <c r="C18" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D18" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E18" s="0" t="inlineStr">
@@ -3039,17 +2960,17 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>KOTA JELITA</t>
+          <t>KOTA WANGI</t>
         </is>
       </c>
       <c r="I18" s="0" t="inlineStr">
         <is>
-          <t>2177/2018</t>
+          <t>3284/2017</t>
         </is>
       </c>
       <c r="J18" s="0" t="inlineStr">
         <is>
-          <t>UNILEVER BD LTD</t>
+          <t>M/S ROBIUL INTERNATIONAL EXPORT &amp;</t>
         </is>
       </c>
       <c r="K18" s="0" t="inlineStr">
@@ -3063,25 +2984,25 @@
       <c r="O18" s="0"/>
       <c r="P18" s="0" t="inlineStr">
         <is>
-          <t>SODIUM SULPHATE</t>
+          <t>SCRAP</t>
         </is>
       </c>
       <c r="Q18" s="0" t="inlineStr">
         <is>
-          <t>CN0041864</t>
+          <t>W0392567</t>
         </is>
       </c>
       <c r="R18" s="0"/>
       <c r="S18" s="0" t="inlineStr">
         <is>
-          <t>2018-12461</t>
+          <t>2017-22553</t>
         </is>
       </c>
       <c r="T18" s="0" t="d">
-        <v>2018-07-22T00:00:00</v>
+        <v>2017-11-18T00:00:00</v>
       </c>
       <c r="U18" s="0" t="d">
-        <v>2018-07-25T00:00:00</v>
+        <v>2017-11-20T00:00:00</v>
       </c>
       <c r="V18" s="0" t="inlineStr">
         <is>
@@ -3098,11 +3019,11 @@
       </c>
       <c r="Y18" s="0" t="inlineStr">
         <is>
-          <t>CKBB80025500</t>
+          <t>SEL700355401</t>
         </is>
       </c>
       <c r="Z18" s="0" t="n">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="AA18" s="0"/>
       <c r="AB18" s="0" t="inlineStr">
@@ -3114,11 +3035,11 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>9015</v>
+        <v>9014</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>PCIU1149869</t>
+          <t>PCIU1304498</t>
         </is>
       </c>
       <c r="C19" s="0" t="n">
@@ -3175,13 +3096,13 @@
       </c>
       <c r="Q19" s="0" t="inlineStr">
         <is>
-          <t>CN0041868</t>
+          <t>CN0041864</t>
         </is>
       </c>
       <c r="R19" s="0"/>
       <c r="S19" s="0" t="inlineStr">
         <is>
-          <t>2018-12465</t>
+          <t>2018-12461</t>
         </is>
       </c>
       <c r="T19" s="0" t="d">
@@ -3221,11 +3142,11 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>9016</v>
+        <v>9015</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>PCIU2757478</t>
+          <t>PCIU1149869</t>
         </is>
       </c>
       <c r="C20" s="0" t="n">
@@ -3282,13 +3203,13 @@
       </c>
       <c r="Q20" s="0" t="inlineStr">
         <is>
-          <t>CN0042242</t>
+          <t>CN0041868</t>
         </is>
       </c>
       <c r="R20" s="0"/>
       <c r="S20" s="0" t="inlineStr">
         <is>
-          <t>2018-12460</t>
+          <t>2018-12465</t>
         </is>
       </c>
       <c r="T20" s="0" t="d">
@@ -3328,11 +3249,11 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>9017</v>
+        <v>9016</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>GLDU9598050</t>
+          <t>PCIU2757478</t>
         </is>
       </c>
       <c r="C21" s="0" t="n">
@@ -3389,13 +3310,13 @@
       </c>
       <c r="Q21" s="0" t="inlineStr">
         <is>
-          <t>CN0145818</t>
+          <t>CN0042242</t>
         </is>
       </c>
       <c r="R21" s="0"/>
       <c r="S21" s="0" t="inlineStr">
         <is>
-          <t>2018-12458</t>
+          <t>2018-12460</t>
         </is>
       </c>
       <c r="T21" s="0" t="d">
@@ -3435,11 +3356,11 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>9018</v>
+        <v>9017</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>PCIU1852043</t>
+          <t>GLDU9598050</t>
         </is>
       </c>
       <c r="C22" s="0" t="n">
@@ -3496,20 +3417,20 @@
       </c>
       <c r="Q22" s="0" t="inlineStr">
         <is>
-          <t>CN0041867</t>
+          <t>CN0145818</t>
         </is>
       </c>
       <c r="R22" s="0"/>
       <c r="S22" s="0" t="inlineStr">
         <is>
-          <t>2018-12519</t>
+          <t>2018-12458</t>
         </is>
       </c>
       <c r="T22" s="0" t="d">
         <v>2018-07-22T00:00:00</v>
       </c>
       <c r="U22" s="0" t="d">
-        <v>2018-07-26T00:00:00</v>
+        <v>2018-07-25T00:00:00</v>
       </c>
       <c r="V22" s="0" t="inlineStr">
         <is>
@@ -3542,11 +3463,11 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>9019</v>
+        <v>9018</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>PCIU2743480</t>
+          <t>PCIU1852043</t>
         </is>
       </c>
       <c r="C23" s="0" t="n">
@@ -3603,20 +3524,20 @@
       </c>
       <c r="Q23" s="0" t="inlineStr">
         <is>
-          <t>CN0228086</t>
+          <t>CN0041867</t>
         </is>
       </c>
       <c r="R23" s="0"/>
       <c r="S23" s="0" t="inlineStr">
         <is>
-          <t>2018-12597</t>
+          <t>2018-12519</t>
         </is>
       </c>
       <c r="T23" s="0" t="d">
         <v>2018-07-22T00:00:00</v>
       </c>
       <c r="U23" s="0" t="d">
-        <v>2018-07-27T00:00:00</v>
+        <v>2018-07-26T00:00:00</v>
       </c>
       <c r="V23" s="0" t="inlineStr">
         <is>
@@ -3649,11 +3570,11 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
-        <v>9020</v>
+        <v>9019</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>PCIU2934932</t>
+          <t>PCIU2743480</t>
         </is>
       </c>
       <c r="C24" s="0" t="n">
@@ -3710,13 +3631,13 @@
       </c>
       <c r="Q24" s="0" t="inlineStr">
         <is>
-          <t>CN0145817</t>
+          <t>CN0228086</t>
         </is>
       </c>
       <c r="R24" s="0"/>
       <c r="S24" s="0" t="inlineStr">
         <is>
-          <t>2018-12599</t>
+          <t>2018-12597</t>
         </is>
       </c>
       <c r="T24" s="0" t="d">
@@ -3756,11 +3677,11 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>9021</v>
+        <v>9020</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>PCIU1141256</t>
+          <t>PCIU2934932</t>
         </is>
       </c>
       <c r="C25" s="0" t="n">
@@ -3817,13 +3738,13 @@
       </c>
       <c r="Q25" s="0" t="inlineStr">
         <is>
-          <t>CN0041865</t>
+          <t>CN0145817</t>
         </is>
       </c>
       <c r="R25" s="0"/>
       <c r="S25" s="0" t="inlineStr">
         <is>
-          <t>2018-12596</t>
+          <t>2018-12599</t>
         </is>
       </c>
       <c r="T25" s="0" t="d">
@@ -3863,11 +3784,11 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>9022</v>
+        <v>9021</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>PCIU2958111</t>
+          <t>PCIU1141256</t>
         </is>
       </c>
       <c r="C26" s="0" t="n">
@@ -3924,13 +3845,13 @@
       </c>
       <c r="Q26" s="0" t="inlineStr">
         <is>
-          <t>CN0041866</t>
+          <t>CN0041865</t>
         </is>
       </c>
       <c r="R26" s="0"/>
       <c r="S26" s="0" t="inlineStr">
         <is>
-          <t>2018-12615</t>
+          <t>2018-12596</t>
         </is>
       </c>
       <c r="T26" s="0" t="d">
@@ -3970,11 +3891,11 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>9023</v>
+        <v>9022</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>PCIU2924512</t>
+          <t>PCIU2958111</t>
         </is>
       </c>
       <c r="C27" s="0" t="n">
@@ -4031,13 +3952,13 @@
       </c>
       <c r="Q27" s="0" t="inlineStr">
         <is>
-          <t>CN0041863</t>
+          <t>CN0041866</t>
         </is>
       </c>
       <c r="R27" s="0"/>
       <c r="S27" s="0" t="inlineStr">
         <is>
-          <t>2018-12598</t>
+          <t>2018-12615</t>
         </is>
       </c>
       <c r="T27" s="0" t="d">
@@ -4077,11 +3998,11 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>9024</v>
+        <v>9023</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>PCIU1501692</t>
+          <t>PCIU2924512</t>
         </is>
       </c>
       <c r="C28" s="0" t="n">
@@ -4138,20 +4059,20 @@
       </c>
       <c r="Q28" s="0" t="inlineStr">
         <is>
-          <t>CN0041874</t>
+          <t>CN0041863</t>
         </is>
       </c>
       <c r="R28" s="0"/>
       <c r="S28" s="0" t="inlineStr">
         <is>
-          <t>2018-12463</t>
+          <t>2018-12598</t>
         </is>
       </c>
       <c r="T28" s="0" t="d">
         <v>2018-07-22T00:00:00</v>
       </c>
       <c r="U28" s="0" t="d">
-        <v>2018-07-25T00:00:00</v>
+        <v>2018-07-27T00:00:00</v>
       </c>
       <c r="V28" s="0" t="inlineStr">
         <is>
@@ -4168,11 +4089,11 @@
       </c>
       <c r="Y28" s="0" t="inlineStr">
         <is>
-          <t>CKBB80025400</t>
+          <t>CKBB80025500</t>
         </is>
       </c>
       <c r="Z28" s="0" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA28" s="0"/>
       <c r="AB28" s="0" t="inlineStr">
@@ -4184,11 +4105,11 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>9025</v>
+        <v>9024</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>PCIU0014642</t>
+          <t>PCIU1501692</t>
         </is>
       </c>
       <c r="C29" s="0" t="n">
@@ -4245,13 +4166,13 @@
       </c>
       <c r="Q29" s="0" t="inlineStr">
         <is>
-          <t>CN0041880</t>
+          <t>CN0041874</t>
         </is>
       </c>
       <c r="R29" s="0"/>
       <c r="S29" s="0" t="inlineStr">
         <is>
-          <t>2018-12462</t>
+          <t>2018-12463</t>
         </is>
       </c>
       <c r="T29" s="0" t="d">
@@ -4291,11 +4212,11 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>9026</v>
+        <v>9025</v>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>PCIU1025976</t>
+          <t>PCIU0014642</t>
         </is>
       </c>
       <c r="C30" s="0" t="n">
@@ -4352,20 +4273,20 @@
       </c>
       <c r="Q30" s="0" t="inlineStr">
         <is>
-          <t>CN0041875</t>
+          <t>CN0041880</t>
         </is>
       </c>
       <c r="R30" s="0"/>
       <c r="S30" s="0" t="inlineStr">
         <is>
-          <t>2018-12472</t>
+          <t>2018-12462</t>
         </is>
       </c>
       <c r="T30" s="0" t="d">
         <v>2018-07-22T00:00:00</v>
       </c>
       <c r="U30" s="0" t="d">
-        <v>2018-07-26T00:00:00</v>
+        <v>2018-07-25T00:00:00</v>
       </c>
       <c r="V30" s="0" t="inlineStr">
         <is>
@@ -4398,11 +4319,11 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
-        <v>9027</v>
+        <v>9026</v>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>TEMU3900660</t>
+          <t>PCIU1025976</t>
         </is>
       </c>
       <c r="C31" s="0" t="n">
@@ -4459,13 +4380,13 @@
       </c>
       <c r="Q31" s="0" t="inlineStr">
         <is>
-          <t>CN0145819</t>
+          <t>CN0041875</t>
         </is>
       </c>
       <c r="R31" s="0"/>
       <c r="S31" s="0" t="inlineStr">
         <is>
-          <t>2018-12473</t>
+          <t>2018-12472</t>
         </is>
       </c>
       <c r="T31" s="0" t="d">
@@ -4505,11 +4426,11 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>9028</v>
+        <v>9027</v>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>TRHU1174583</t>
+          <t>TEMU3900660</t>
         </is>
       </c>
       <c r="C32" s="0" t="n">
@@ -4566,13 +4487,13 @@
       </c>
       <c r="Q32" s="0" t="inlineStr">
         <is>
-          <t>CN0041876</t>
+          <t>CN0145819</t>
         </is>
       </c>
       <c r="R32" s="0"/>
       <c r="S32" s="0" t="inlineStr">
         <is>
-          <t>2018-12474</t>
+          <t>2018-12473</t>
         </is>
       </c>
       <c r="T32" s="0" t="d">
@@ -4612,11 +4533,11 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
-        <v>9029</v>
+        <v>9028</v>
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>PCIU0025312</t>
+          <t>TRHU1174583</t>
         </is>
       </c>
       <c r="C33" s="0" t="n">
@@ -4673,13 +4594,13 @@
       </c>
       <c r="Q33" s="0" t="inlineStr">
         <is>
-          <t>CN0041877</t>
+          <t>CN0041876</t>
         </is>
       </c>
       <c r="R33" s="0"/>
       <c r="S33" s="0" t="inlineStr">
         <is>
-          <t>2018-12518</t>
+          <t>2018-12474</t>
         </is>
       </c>
       <c r="T33" s="0" t="d">
@@ -4719,11 +4640,11 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
-        <v>9030</v>
+        <v>9029</v>
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>BMOU2598130</t>
+          <t>PCIU0025312</t>
         </is>
       </c>
       <c r="C34" s="0" t="n">
@@ -4780,20 +4701,20 @@
       </c>
       <c r="Q34" s="0" t="inlineStr">
         <is>
-          <t>CN0041871</t>
+          <t>CN0041877</t>
         </is>
       </c>
       <c r="R34" s="0"/>
       <c r="S34" s="0" t="inlineStr">
         <is>
-          <t>2018-12595</t>
+          <t>2018-12518</t>
         </is>
       </c>
       <c r="T34" s="0" t="d">
         <v>2018-07-22T00:00:00</v>
       </c>
       <c r="U34" s="0" t="d">
-        <v>2018-07-27T00:00:00</v>
+        <v>2018-07-26T00:00:00</v>
       </c>
       <c r="V34" s="0" t="inlineStr">
         <is>
@@ -4826,11 +4747,11 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
-        <v>9031</v>
+        <v>9030</v>
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>PCIU2666212</t>
+          <t>BMOU2598130</t>
         </is>
       </c>
       <c r="C35" s="0" t="n">
@@ -4887,13 +4808,13 @@
       </c>
       <c r="Q35" s="0" t="inlineStr">
         <is>
-          <t>CN0041873</t>
+          <t>CN0041871</t>
         </is>
       </c>
       <c r="R35" s="0"/>
       <c r="S35" s="0" t="inlineStr">
         <is>
-          <t>2018-12613</t>
+          <t>2018-12595</t>
         </is>
       </c>
       <c r="T35" s="0" t="d">
@@ -4933,11 +4854,11 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
-        <v>9032</v>
+        <v>9031</v>
       </c>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>PCIU2834131</t>
+          <t>PCIU2666212</t>
         </is>
       </c>
       <c r="C36" s="0" t="n">
@@ -4994,13 +4915,13 @@
       </c>
       <c r="Q36" s="0" t="inlineStr">
         <is>
-          <t>CN0041878</t>
+          <t>CN0041873</t>
         </is>
       </c>
       <c r="R36" s="0"/>
       <c r="S36" s="0" t="inlineStr">
         <is>
-          <t>2018-12614</t>
+          <t>2018-12613</t>
         </is>
       </c>
       <c r="T36" s="0" t="d">
@@ -5040,11 +4961,11 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
-        <v>9033</v>
+        <v>9032</v>
       </c>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>CAIU3629956</t>
+          <t>PCIU2834131</t>
         </is>
       </c>
       <c r="C37" s="0" t="n">
@@ -5101,13 +5022,13 @@
       </c>
       <c r="Q37" s="0" t="inlineStr">
         <is>
-          <t>CN0041869</t>
+          <t>CN0041878</t>
         </is>
       </c>
       <c r="R37" s="0"/>
       <c r="S37" s="0" t="inlineStr">
         <is>
-          <t>2018-12612</t>
+          <t>2018-12614</t>
         </is>
       </c>
       <c r="T37" s="0" t="d">
@@ -5147,11 +5068,11 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
-        <v>9160</v>
+        <v>9033</v>
       </c>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>PCIU1170721</t>
+          <t>CAIU3629956</t>
         </is>
       </c>
       <c r="C38" s="0" t="n">
@@ -5179,17 +5100,17 @@
       </c>
       <c r="H38" s="0" t="inlineStr">
         <is>
-          <t>KOTA AZAM</t>
+          <t>KOTA JELITA</t>
         </is>
       </c>
       <c r="I38" s="0" t="inlineStr">
         <is>
-          <t>2415/2018</t>
+          <t>2177/2018</t>
         </is>
       </c>
       <c r="J38" s="0" t="inlineStr">
         <is>
-          <t>ALIF INTERNATIONAL AGENCY</t>
+          <t>UNILEVER BD LTD</t>
         </is>
       </c>
       <c r="K38" s="0" t="inlineStr">
@@ -5203,25 +5124,25 @@
       <c r="O38" s="0"/>
       <c r="P38" s="0" t="inlineStr">
         <is>
-          <t>ANIMAL FEED</t>
+          <t>SODIUM SULPHATE</t>
         </is>
       </c>
       <c r="Q38" s="0" t="inlineStr">
         <is>
-          <t>SG0148840</t>
+          <t>CN0041869</t>
         </is>
       </c>
       <c r="R38" s="0"/>
       <c r="S38" s="0" t="inlineStr">
         <is>
-          <t>2018-14228</t>
+          <t>2018-12612</t>
         </is>
       </c>
       <c r="T38" s="0" t="d">
-        <v>2018-08-18T00:00:00</v>
+        <v>2018-07-22T00:00:00</v>
       </c>
       <c r="U38" s="0" t="d">
-        <v>2018-09-01T00:00:00</v>
+        <v>2018-07-27T00:00:00</v>
       </c>
       <c r="V38" s="0" t="inlineStr">
         <is>
@@ -5238,11 +5159,11 @@
       </c>
       <c r="Y38" s="0" t="inlineStr">
         <is>
-          <t>SGN800889400</t>
+          <t>CKBB80025400</t>
         </is>
       </c>
       <c r="Z38" s="0" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="AA38" s="0"/>
       <c r="AB38" s="0" t="inlineStr">
@@ -5254,11 +5175,11 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
-        <v>9299</v>
+        <v>9160</v>
       </c>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>PCIU1342878</t>
+          <t>PCIU1170721</t>
         </is>
       </c>
       <c r="C39" s="0" t="n">
@@ -5291,12 +5212,12 @@
       </c>
       <c r="I39" s="0" t="inlineStr">
         <is>
-          <t>2630/2018</t>
+          <t>2415/2018</t>
         </is>
       </c>
       <c r="J39" s="0" t="inlineStr">
         <is>
-          <t>ZABER  &amp;  ZUBAIR  FABRICS  LTD.</t>
+          <t>ALIF INTERNATIONAL AGENCY</t>
         </is>
       </c>
       <c r="K39" s="0" t="inlineStr">
@@ -5310,25 +5231,25 @@
       <c r="O39" s="0"/>
       <c r="P39" s="0" t="inlineStr">
         <is>
-          <t>SODA ASH</t>
+          <t>ANIMAL FEED</t>
         </is>
       </c>
       <c r="Q39" s="0" t="inlineStr">
         <is>
-          <t>CN0443258</t>
+          <t>SG0148840</t>
         </is>
       </c>
       <c r="R39" s="0"/>
       <c r="S39" s="0" t="inlineStr">
         <is>
-          <t>2018-15025</t>
+          <t>2018-14228</t>
         </is>
       </c>
       <c r="T39" s="0" t="d">
-        <v>2018-09-05T00:00:00</v>
+        <v>2018-08-18T00:00:00</v>
       </c>
       <c r="U39" s="0" t="d">
-        <v>2018-09-08T00:00:00</v>
+        <v>2018-09-01T00:00:00</v>
       </c>
       <c r="V39" s="0" t="inlineStr">
         <is>
@@ -5345,11 +5266,11 @@
       </c>
       <c r="Y39" s="0" t="inlineStr">
         <is>
-          <t>LYBM80089600</t>
+          <t>SGN800889400</t>
         </is>
       </c>
       <c r="Z39" s="0" t="n">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="AA39" s="0"/>
       <c r="AB39" s="0" t="inlineStr">
@@ -5361,11 +5282,11 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
-        <v>9300</v>
+        <v>9299</v>
       </c>
       <c r="B40" s="0" t="inlineStr">
         <is>
-          <t>BMOU2588132</t>
+          <t>PCIU1342878</t>
         </is>
       </c>
       <c r="C40" s="0" t="n">
@@ -5422,20 +5343,20 @@
       </c>
       <c r="Q40" s="0" t="inlineStr">
         <is>
-          <t>CN0443260</t>
+          <t>CN0443258</t>
         </is>
       </c>
       <c r="R40" s="0"/>
       <c r="S40" s="0" t="inlineStr">
         <is>
-          <t>2018-15138</t>
+          <t>2018-15025</t>
         </is>
       </c>
       <c r="T40" s="0" t="d">
         <v>2018-09-05T00:00:00</v>
       </c>
       <c r="U40" s="0" t="d">
-        <v>2018-09-09T00:00:00</v>
+        <v>2018-09-08T00:00:00</v>
       </c>
       <c r="V40" s="0" t="inlineStr">
         <is>
@@ -5468,11 +5389,11 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="n">
-        <v>9301</v>
+        <v>9300</v>
       </c>
       <c r="B41" s="0" t="inlineStr">
         <is>
-          <t>PCIU1629220</t>
+          <t>BMOU2588132</t>
         </is>
       </c>
       <c r="C41" s="0" t="n">
@@ -5529,20 +5450,20 @@
       </c>
       <c r="Q41" s="0" t="inlineStr">
         <is>
-          <t>CN0443256</t>
+          <t>CN0443260</t>
         </is>
       </c>
       <c r="R41" s="0"/>
       <c r="S41" s="0" t="inlineStr">
         <is>
-          <t>2018-15026</t>
+          <t>2018-15138</t>
         </is>
       </c>
       <c r="T41" s="0" t="d">
         <v>2018-09-05T00:00:00</v>
       </c>
       <c r="U41" s="0" t="d">
-        <v>2018-09-10T00:00:00</v>
+        <v>2018-09-09T00:00:00</v>
       </c>
       <c r="V41" s="0" t="inlineStr">
         <is>
@@ -5575,11 +5496,11 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
-        <v>9747</v>
+        <v>9301</v>
       </c>
       <c r="B42" s="0" t="inlineStr">
         <is>
-          <t>PCIU2912851</t>
+          <t>PCIU1629220</t>
         </is>
       </c>
       <c r="C42" s="0" t="n">
@@ -5636,20 +5557,20 @@
       </c>
       <c r="Q42" s="0" t="inlineStr">
         <is>
-          <t>CN0443259</t>
+          <t>CN0443256</t>
         </is>
       </c>
       <c r="R42" s="0"/>
       <c r="S42" s="0" t="inlineStr">
         <is>
-          <t>2018-15165</t>
+          <t>2018-15026</t>
         </is>
       </c>
       <c r="T42" s="0" t="d">
         <v>2018-09-05T00:00:00</v>
       </c>
       <c r="U42" s="0" t="d">
-        <v>2018-09-12T00:00:00</v>
+        <v>2018-09-10T00:00:00</v>
       </c>
       <c r="V42" s="0" t="inlineStr">
         <is>
@@ -5682,11 +5603,11 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="n">
-        <v>9304</v>
+        <v>9747</v>
       </c>
       <c r="B43" s="0" t="inlineStr">
         <is>
-          <t>PCIU1675288</t>
+          <t>PCIU2912851</t>
         </is>
       </c>
       <c r="C43" s="0" t="n">
@@ -5743,13 +5664,13 @@
       </c>
       <c r="Q43" s="0" t="inlineStr">
         <is>
-          <t>CN0443257</t>
+          <t>CN0443259</t>
         </is>
       </c>
       <c r="R43" s="0"/>
       <c r="S43" s="0" t="inlineStr">
         <is>
-          <t>2018-15164</t>
+          <t>2018-15165</t>
         </is>
       </c>
       <c r="T43" s="0" t="d">
@@ -5789,11 +5710,11 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
-        <v>9305</v>
+        <v>9304</v>
       </c>
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t>PCIU2679858</t>
+          <t>PCIU1675288</t>
         </is>
       </c>
       <c r="C44" s="0" t="n">
@@ -5821,17 +5742,17 @@
       </c>
       <c r="H44" s="0" t="inlineStr">
         <is>
-          <t>KOTA JELITA</t>
+          <t>KOTA AZAM</t>
         </is>
       </c>
       <c r="I44" s="0" t="inlineStr">
         <is>
-          <t>2600/2018</t>
+          <t>2630/2018</t>
         </is>
       </c>
       <c r="J44" s="0" t="inlineStr">
         <is>
-          <t>SANJANA  FABRICS  LIMITED</t>
+          <t>ZABER  &amp;  ZUBAIR  FABRICS  LTD.</t>
         </is>
       </c>
       <c r="K44" s="0" t="inlineStr">
@@ -5845,25 +5766,25 @@
       <c r="O44" s="0"/>
       <c r="P44" s="0" t="inlineStr">
         <is>
-          <t>SODIUM SULPHATE</t>
+          <t>SODA ASH</t>
         </is>
       </c>
       <c r="Q44" s="0" t="inlineStr">
         <is>
-          <t>CN0440355</t>
+          <t>CN0443257</t>
         </is>
       </c>
       <c r="R44" s="0"/>
       <c r="S44" s="0" t="inlineStr">
         <is>
-          <t>2018-15027</t>
+          <t>2018-15164</t>
         </is>
       </c>
       <c r="T44" s="0" t="d">
         <v>2018-09-05T00:00:00</v>
       </c>
       <c r="U44" s="0" t="d">
-        <v>2018-09-08T00:00:00</v>
+        <v>2018-09-12T00:00:00</v>
       </c>
       <c r="V44" s="0" t="inlineStr">
         <is>
@@ -5880,11 +5801,11 @@
       </c>
       <c r="Y44" s="0" t="inlineStr">
         <is>
-          <t>NKAV70027400</t>
+          <t>LYBM80089600</t>
         </is>
       </c>
       <c r="Z44" s="0" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AA44" s="0"/>
       <c r="AB44" s="0" t="inlineStr">
@@ -5896,11 +5817,11 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="n">
-        <v>9306</v>
+        <v>9305</v>
       </c>
       <c r="B45" s="0" t="inlineStr">
         <is>
-          <t>PCIU1387548</t>
+          <t>PCIU2679858</t>
         </is>
       </c>
       <c r="C45" s="0" t="n">
@@ -5957,13 +5878,13 @@
       </c>
       <c r="Q45" s="0" t="inlineStr">
         <is>
-          <t>CN0440358</t>
+          <t>CN0440355</t>
         </is>
       </c>
       <c r="R45" s="0"/>
       <c r="S45" s="0" t="inlineStr">
         <is>
-          <t>2018-15044</t>
+          <t>2018-15027</t>
         </is>
       </c>
       <c r="T45" s="0" t="d">
@@ -6003,11 +5924,11 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
-        <v>9307</v>
+        <v>9306</v>
       </c>
       <c r="B46" s="0" t="inlineStr">
         <is>
-          <t>PCIU2048699</t>
+          <t>PCIU1387548</t>
         </is>
       </c>
       <c r="C46" s="0" t="n">
@@ -6064,13 +5985,13 @@
       </c>
       <c r="Q46" s="0" t="inlineStr">
         <is>
-          <t>CN0440286</t>
+          <t>CN0440358</t>
         </is>
       </c>
       <c r="R46" s="0"/>
       <c r="S46" s="0" t="inlineStr">
         <is>
-          <t>2018-15075</t>
+          <t>2018-15044</t>
         </is>
       </c>
       <c r="T46" s="0" t="d">
@@ -6110,11 +6031,11 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="n">
-        <v>9308</v>
+        <v>9307</v>
       </c>
       <c r="B47" s="0" t="inlineStr">
         <is>
-          <t>PCIU2988380</t>
+          <t>PCIU2048699</t>
         </is>
       </c>
       <c r="C47" s="0" t="n">
@@ -6171,13 +6092,13 @@
       </c>
       <c r="Q47" s="0" t="inlineStr">
         <is>
-          <t>CN0440353</t>
+          <t>CN0440286</t>
         </is>
       </c>
       <c r="R47" s="0"/>
       <c r="S47" s="0" t="inlineStr">
         <is>
-          <t>2018-15076</t>
+          <t>2018-15075</t>
         </is>
       </c>
       <c r="T47" s="0" t="d">
@@ -6217,11 +6138,11 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
-        <v>9309</v>
+        <v>9308</v>
       </c>
       <c r="B48" s="0" t="inlineStr">
         <is>
-          <t>PCIU2808976</t>
+          <t>PCIU2988380</t>
         </is>
       </c>
       <c r="C48" s="0" t="n">
@@ -6278,20 +6199,20 @@
       </c>
       <c r="Q48" s="0" t="inlineStr">
         <is>
-          <t>CN0440352</t>
+          <t>CN0440353</t>
         </is>
       </c>
       <c r="R48" s="0"/>
       <c r="S48" s="0" t="inlineStr">
         <is>
-          <t>2018-15160</t>
+          <t>2018-15076</t>
         </is>
       </c>
       <c r="T48" s="0" t="d">
         <v>2018-09-05T00:00:00</v>
       </c>
       <c r="U48" s="0" t="d">
-        <v>2018-09-09T00:00:00</v>
+        <v>2018-09-08T00:00:00</v>
       </c>
       <c r="V48" s="0" t="inlineStr">
         <is>
@@ -6324,11 +6245,11 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="n">
-        <v>9310</v>
+        <v>9309</v>
       </c>
       <c r="B49" s="0" t="inlineStr">
         <is>
-          <t>PCIU2204981</t>
+          <t>PCIU2808976</t>
         </is>
       </c>
       <c r="C49" s="0" t="n">
@@ -6385,20 +6306,20 @@
       </c>
       <c r="Q49" s="0" t="inlineStr">
         <is>
-          <t>CN0224594</t>
+          <t>CN0440352</t>
         </is>
       </c>
       <c r="R49" s="0"/>
       <c r="S49" s="0" t="inlineStr">
         <is>
-          <t>2018-15184</t>
+          <t>2018-15160</t>
         </is>
       </c>
       <c r="T49" s="0" t="d">
         <v>2018-09-05T00:00:00</v>
       </c>
       <c r="U49" s="0" t="d">
-        <v>2018-09-10T00:00:00</v>
+        <v>2018-09-09T00:00:00</v>
       </c>
       <c r="V49" s="0" t="inlineStr">
         <is>
@@ -6431,11 +6352,11 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="n">
-        <v>9311</v>
+        <v>9310</v>
       </c>
       <c r="B50" s="0" t="inlineStr">
         <is>
-          <t>PCIU2651594</t>
+          <t>PCIU2204981</t>
         </is>
       </c>
       <c r="C50" s="0" t="n">
@@ -6492,20 +6413,20 @@
       </c>
       <c r="Q50" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>CN0224594</t>
         </is>
       </c>
       <c r="R50" s="0"/>
       <c r="S50" s="0" t="inlineStr">
         <is>
-          <t>2018-15296</t>
+          <t>2018-15184</t>
         </is>
       </c>
       <c r="T50" s="0" t="d">
         <v>2018-09-05T00:00:00</v>
       </c>
       <c r="U50" s="0" t="d">
-        <v>2018-09-12T00:00:00</v>
+        <v>2018-09-10T00:00:00</v>
       </c>
       <c r="V50" s="0" t="inlineStr">
         <is>
@@ -6538,11 +6459,11 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="n">
-        <v>9606</v>
+        <v>9311</v>
       </c>
       <c r="B51" s="0" t="inlineStr">
         <is>
-          <t>PCIU2958620</t>
+          <t>PCIU2651594</t>
         </is>
       </c>
       <c r="C51" s="0" t="n">
@@ -6570,17 +6491,17 @@
       </c>
       <c r="H51" s="0" t="inlineStr">
         <is>
-          <t>KOTA ANGGERIK</t>
+          <t>KOTA JELITA</t>
         </is>
       </c>
       <c r="I51" s="0" t="inlineStr">
         <is>
-          <t>2742/2018</t>
+          <t>2600/2018</t>
         </is>
       </c>
       <c r="J51" s="0" t="inlineStr">
         <is>
-          <t>SHODESH SHIPPING &amp; LOGISTIC</t>
+          <t>SANJANA  FABRICS  LIMITED</t>
         </is>
       </c>
       <c r="K51" s="0" t="inlineStr">
@@ -6599,20 +6520,20 @@
       </c>
       <c r="Q51" s="0" t="inlineStr">
         <is>
-          <t>CN0343442</t>
+          <t/>
         </is>
       </c>
       <c r="R51" s="0"/>
       <c r="S51" s="0" t="inlineStr">
         <is>
-          <t>2018-15475</t>
+          <t>2018-15296</t>
         </is>
       </c>
       <c r="T51" s="0" t="d">
-        <v>2018-09-13T00:00:00</v>
+        <v>2018-09-05T00:00:00</v>
       </c>
       <c r="U51" s="0" t="d">
-        <v>2018-09-14T00:00:00</v>
+        <v>2018-09-12T00:00:00</v>
       </c>
       <c r="V51" s="0" t="inlineStr">
         <is>
@@ -6629,11 +6550,11 @@
       </c>
       <c r="Y51" s="0" t="inlineStr">
         <is>
-          <t>WUAN80023900</t>
+          <t>NKAV70027400</t>
         </is>
       </c>
       <c r="Z51" s="0" t="n">
-        <v>179</v>
+        <v>75</v>
       </c>
       <c r="AA51" s="0"/>
       <c r="AB51" s="0" t="inlineStr">
@@ -6645,11 +6566,11 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="n">
-        <v>9607</v>
+        <v>9606</v>
       </c>
       <c r="B52" s="0" t="inlineStr">
         <is>
-          <t>PCIU1746822</t>
+          <t>PCIU2958620</t>
         </is>
       </c>
       <c r="C52" s="0" t="n">
@@ -6706,13 +6627,13 @@
       </c>
       <c r="Q52" s="0" t="inlineStr">
         <is>
-          <t>CN0343450</t>
+          <t>CN0343442</t>
         </is>
       </c>
       <c r="R52" s="0"/>
       <c r="S52" s="0" t="inlineStr">
         <is>
-          <t>2018-15474</t>
+          <t>2018-15475</t>
         </is>
       </c>
       <c r="T52" s="0" t="d">
@@ -6752,11 +6673,11 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="n">
-        <v>9608</v>
+        <v>9607</v>
       </c>
       <c r="B53" s="0" t="inlineStr">
         <is>
-          <t>PCIU1729764</t>
+          <t>PCIU1746822</t>
         </is>
       </c>
       <c r="C53" s="0" t="n">
@@ -6813,13 +6734,13 @@
       </c>
       <c r="Q53" s="0" t="inlineStr">
         <is>
-          <t>CN0343445</t>
+          <t>CN0343450</t>
         </is>
       </c>
       <c r="R53" s="0"/>
       <c r="S53" s="0" t="inlineStr">
         <is>
-          <t>2018-15473</t>
+          <t>2018-15474</t>
         </is>
       </c>
       <c r="T53" s="0" t="d">
@@ -6859,11 +6780,11 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="n">
-        <v>9609</v>
+        <v>9608</v>
       </c>
       <c r="B54" s="0" t="inlineStr">
         <is>
-          <t>PCIU1495183</t>
+          <t>PCIU1729764</t>
         </is>
       </c>
       <c r="C54" s="0" t="n">
@@ -6920,13 +6841,13 @@
       </c>
       <c r="Q54" s="0" t="inlineStr">
         <is>
-          <t>CN0343441</t>
+          <t>CN0343445</t>
         </is>
       </c>
       <c r="R54" s="0"/>
       <c r="S54" s="0" t="inlineStr">
         <is>
-          <t>2018-15471</t>
+          <t>2018-15473</t>
         </is>
       </c>
       <c r="T54" s="0" t="d">
@@ -6966,11 +6887,11 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="n">
-        <v>9610</v>
+        <v>9609</v>
       </c>
       <c r="B55" s="0" t="inlineStr">
         <is>
-          <t>PCIU1624866</t>
+          <t>PCIU1495183</t>
         </is>
       </c>
       <c r="C55" s="0" t="n">
@@ -7027,13 +6948,13 @@
       </c>
       <c r="Q55" s="0" t="inlineStr">
         <is>
-          <t>CN0343443</t>
+          <t>CN0343441</t>
         </is>
       </c>
       <c r="R55" s="0"/>
       <c r="S55" s="0" t="inlineStr">
         <is>
-          <t>2018-15472</t>
+          <t>2018-15471</t>
         </is>
       </c>
       <c r="T55" s="0" t="d">
@@ -7073,11 +6994,11 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="n">
-        <v>9611</v>
+        <v>9610</v>
       </c>
       <c r="B56" s="0" t="inlineStr">
         <is>
-          <t>PCIU1996966</t>
+          <t>PCIU1624866</t>
         </is>
       </c>
       <c r="C56" s="0" t="n">
@@ -7134,13 +7055,13 @@
       </c>
       <c r="Q56" s="0" t="inlineStr">
         <is>
-          <t>CN0343447</t>
+          <t>CN0343443</t>
         </is>
       </c>
       <c r="R56" s="0"/>
       <c r="S56" s="0" t="inlineStr">
         <is>
-          <t>2018-15476</t>
+          <t>2018-15472</t>
         </is>
       </c>
       <c r="T56" s="0" t="d">
@@ -7180,11 +7101,11 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="n">
-        <v>9612</v>
+        <v>9611</v>
       </c>
       <c r="B57" s="0" t="inlineStr">
         <is>
-          <t>SEGU1700918</t>
+          <t>PCIU1996966</t>
         </is>
       </c>
       <c r="C57" s="0" t="n">
@@ -7241,20 +7162,20 @@
       </c>
       <c r="Q57" s="0" t="inlineStr">
         <is>
-          <t>CN0343449</t>
+          <t>CN0343447</t>
         </is>
       </c>
       <c r="R57" s="0"/>
       <c r="S57" s="0" t="inlineStr">
         <is>
-          <t>2018-15524</t>
+          <t>2018-15476</t>
         </is>
       </c>
       <c r="T57" s="0" t="d">
         <v>2018-09-13T00:00:00</v>
       </c>
       <c r="U57" s="0" t="d">
-        <v>2018-09-15T00:00:00</v>
+        <v>2018-09-14T00:00:00</v>
       </c>
       <c r="V57" s="0" t="inlineStr">
         <is>
@@ -7287,11 +7208,11 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="n">
-        <v>9613</v>
+        <v>9612</v>
       </c>
       <c r="B58" s="0" t="inlineStr">
         <is>
-          <t>PCIU1616177</t>
+          <t>SEGU1700918</t>
         </is>
       </c>
       <c r="C58" s="0" t="n">
@@ -7348,13 +7269,13 @@
       </c>
       <c r="Q58" s="0" t="inlineStr">
         <is>
-          <t>CN0343448</t>
+          <t>CN0343449</t>
         </is>
       </c>
       <c r="R58" s="0"/>
       <c r="S58" s="0" t="inlineStr">
         <is>
-          <t>2018-15523</t>
+          <t>2018-15524</t>
         </is>
       </c>
       <c r="T58" s="0" t="d">
@@ -7394,11 +7315,11 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="n">
-        <v>9614</v>
+        <v>9613</v>
       </c>
       <c r="B59" s="0" t="inlineStr">
         <is>
-          <t>CAIU3645617</t>
+          <t>PCIU1616177</t>
         </is>
       </c>
       <c r="C59" s="0" t="n">
@@ -7455,13 +7376,13 @@
       </c>
       <c r="Q59" s="0" t="inlineStr">
         <is>
-          <t>CN0343444</t>
+          <t>CN0343448</t>
         </is>
       </c>
       <c r="R59" s="0"/>
       <c r="S59" s="0" t="inlineStr">
         <is>
-          <t>2018-15516</t>
+          <t>2018-15523</t>
         </is>
       </c>
       <c r="T59" s="0" t="d">
@@ -7501,11 +7422,11 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="n">
-        <v>9615</v>
+        <v>9614</v>
       </c>
       <c r="B60" s="0" t="inlineStr">
         <is>
-          <t>TEMU4451420</t>
+          <t>CAIU3645617</t>
         </is>
       </c>
       <c r="C60" s="0" t="n">
@@ -7562,13 +7483,13 @@
       </c>
       <c r="Q60" s="0" t="inlineStr">
         <is>
-          <t>CN0343446</t>
+          <t>CN0343444</t>
         </is>
       </c>
       <c r="R60" s="0"/>
       <c r="S60" s="0" t="inlineStr">
         <is>
-          <t>2018-15525</t>
+          <t>2018-15516</t>
         </is>
       </c>
       <c r="T60" s="0" t="d">
@@ -7608,11 +7529,11 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="n">
-        <v>9616</v>
+        <v>9615</v>
       </c>
       <c r="B61" s="0" t="inlineStr">
         <is>
-          <t>PCIU2761483</t>
+          <t>TEMU4451420</t>
         </is>
       </c>
       <c r="C61" s="0" t="n">
@@ -7669,20 +7590,20 @@
       </c>
       <c r="Q61" s="0" t="inlineStr">
         <is>
-          <t>CN0343758</t>
+          <t>CN0343446</t>
         </is>
       </c>
       <c r="R61" s="0"/>
       <c r="S61" s="0" t="inlineStr">
         <is>
-          <t>2018-15477</t>
+          <t>2018-15525</t>
         </is>
       </c>
       <c r="T61" s="0" t="d">
         <v>2018-09-13T00:00:00</v>
       </c>
       <c r="U61" s="0" t="d">
-        <v>2018-09-14T00:00:00</v>
+        <v>2018-09-15T00:00:00</v>
       </c>
       <c r="V61" s="0" t="inlineStr">
         <is>
@@ -7699,11 +7620,11 @@
       </c>
       <c r="Y61" s="0" t="inlineStr">
         <is>
-          <t>WUAN80023800</t>
+          <t>WUAN80023900</t>
         </is>
       </c>
       <c r="Z61" s="0" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AA61" s="0"/>
       <c r="AB61" s="0" t="inlineStr">
@@ -7715,11 +7636,11 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="n">
-        <v>9617</v>
+        <v>9616</v>
       </c>
       <c r="B62" s="0" t="inlineStr">
         <is>
-          <t>PCIU1172832</t>
+          <t>PCIU2761483</t>
         </is>
       </c>
       <c r="C62" s="0" t="n">
@@ -7776,20 +7697,20 @@
       </c>
       <c r="Q62" s="0" t="inlineStr">
         <is>
-          <t>CN0343752</t>
+          <t>CN0343758</t>
         </is>
       </c>
       <c r="R62" s="0"/>
       <c r="S62" s="0" t="inlineStr">
         <is>
-          <t>2018-15521</t>
+          <t>2018-15477</t>
         </is>
       </c>
       <c r="T62" s="0" t="d">
         <v>2018-09-13T00:00:00</v>
       </c>
       <c r="U62" s="0" t="d">
-        <v>2018-09-15T00:00:00</v>
+        <v>2018-09-14T00:00:00</v>
       </c>
       <c r="V62" s="0" t="inlineStr">
         <is>
@@ -7822,11 +7743,11 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="n">
-        <v>9618</v>
+        <v>9617</v>
       </c>
       <c r="B63" s="0" t="inlineStr">
         <is>
-          <t>PCIU1589699</t>
+          <t>PCIU1172832</t>
         </is>
       </c>
       <c r="C63" s="0" t="n">
@@ -7883,13 +7804,13 @@
       </c>
       <c r="Q63" s="0" t="inlineStr">
         <is>
-          <t>CN0343759</t>
+          <t>CN0343752</t>
         </is>
       </c>
       <c r="R63" s="0"/>
       <c r="S63" s="0" t="inlineStr">
         <is>
-          <t>2018-15515</t>
+          <t>2018-15521</t>
         </is>
       </c>
       <c r="T63" s="0" t="d">
@@ -7929,11 +7850,11 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="n">
-        <v>9619</v>
+        <v>9618</v>
       </c>
       <c r="B64" s="0" t="inlineStr">
         <is>
-          <t>PCIU1400871</t>
+          <t>PCIU1589699</t>
         </is>
       </c>
       <c r="C64" s="0" t="n">
@@ -7990,13 +7911,13 @@
       </c>
       <c r="Q64" s="0" t="inlineStr">
         <is>
-          <t>CN0343756</t>
+          <t>CN0343759</t>
         </is>
       </c>
       <c r="R64" s="0"/>
       <c r="S64" s="0" t="inlineStr">
         <is>
-          <t>2018-15548</t>
+          <t>2018-15515</t>
         </is>
       </c>
       <c r="T64" s="0" t="d">
@@ -8036,11 +7957,11 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="n">
-        <v>9620</v>
+        <v>9619</v>
       </c>
       <c r="B65" s="0" t="inlineStr">
         <is>
-          <t>PCIU1948968</t>
+          <t>PCIU1400871</t>
         </is>
       </c>
       <c r="C65" s="0" t="n">
@@ -8097,13 +8018,13 @@
       </c>
       <c r="Q65" s="0" t="inlineStr">
         <is>
-          <t>CN0343753</t>
+          <t>CN0343756</t>
         </is>
       </c>
       <c r="R65" s="0"/>
       <c r="S65" s="0" t="inlineStr">
         <is>
-          <t>2018-15542</t>
+          <t>2018-15548</t>
         </is>
       </c>
       <c r="T65" s="0" t="d">
@@ -8143,11 +8064,11 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="n">
-        <v>9621</v>
+        <v>9620</v>
       </c>
       <c r="B66" s="0" t="inlineStr">
         <is>
-          <t>PCIU1324914</t>
+          <t>PCIU1948968</t>
         </is>
       </c>
       <c r="C66" s="0" t="n">
@@ -8204,13 +8125,13 @@
       </c>
       <c r="Q66" s="0" t="inlineStr">
         <is>
-          <t>CN0343754</t>
+          <t>CN0343753</t>
         </is>
       </c>
       <c r="R66" s="0"/>
       <c r="S66" s="0" t="inlineStr">
         <is>
-          <t>2018-15549</t>
+          <t>2018-15542</t>
         </is>
       </c>
       <c r="T66" s="0" t="d">
@@ -8250,11 +8171,11 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="n">
-        <v>9622</v>
+        <v>9621</v>
       </c>
       <c r="B67" s="0" t="inlineStr">
         <is>
-          <t>TCLU7490886</t>
+          <t>PCIU1324914</t>
         </is>
       </c>
       <c r="C67" s="0" t="n">
@@ -8311,13 +8232,13 @@
       </c>
       <c r="Q67" s="0" t="inlineStr">
         <is>
-          <t>CN0343755</t>
+          <t>CN0343754</t>
         </is>
       </c>
       <c r="R67" s="0"/>
       <c r="S67" s="0" t="inlineStr">
         <is>
-          <t>2018-15550</t>
+          <t>2018-15549</t>
         </is>
       </c>
       <c r="T67" s="0" t="d">
@@ -8357,11 +8278,11 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="n">
-        <v>9623</v>
+        <v>9622</v>
       </c>
       <c r="B68" s="0" t="inlineStr">
         <is>
-          <t>CAIU3628517</t>
+          <t>TCLU7490886</t>
         </is>
       </c>
       <c r="C68" s="0" t="n">
@@ -8418,13 +8339,13 @@
       </c>
       <c r="Q68" s="0" t="inlineStr">
         <is>
-          <t>CN0343760</t>
+          <t>CN0343755</t>
         </is>
       </c>
       <c r="R68" s="0"/>
       <c r="S68" s="0" t="inlineStr">
         <is>
-          <t>2018-15541</t>
+          <t>2018-15550</t>
         </is>
       </c>
       <c r="T68" s="0" t="d">
@@ -8464,11 +8385,11 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="n">
-        <v>9624</v>
+        <v>9623</v>
       </c>
       <c r="B69" s="0" t="inlineStr">
         <is>
-          <t>TRLU9289864</t>
+          <t>CAIU3628517</t>
         </is>
       </c>
       <c r="C69" s="0" t="n">
@@ -8525,20 +8446,20 @@
       </c>
       <c r="Q69" s="0" t="inlineStr">
         <is>
-          <t>CN0343757</t>
+          <t>CN0343760</t>
         </is>
       </c>
       <c r="R69" s="0"/>
       <c r="S69" s="0" t="inlineStr">
         <is>
-          <t>2018-15574</t>
+          <t>2018-15541</t>
         </is>
       </c>
       <c r="T69" s="0" t="d">
         <v>2018-09-13T00:00:00</v>
       </c>
       <c r="U69" s="0" t="d">
-        <v>2018-09-16T00:00:00</v>
+        <v>2018-09-15T00:00:00</v>
       </c>
       <c r="V69" s="0" t="inlineStr">
         <is>
@@ -8571,11 +8492,11 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="n">
-        <v>9625</v>
+        <v>9624</v>
       </c>
       <c r="B70" s="0" t="inlineStr">
         <is>
-          <t>PCIU1970869</t>
+          <t>TRLU9289864</t>
         </is>
       </c>
       <c r="C70" s="0" t="n">
@@ -8632,13 +8553,13 @@
       </c>
       <c r="Q70" s="0" t="inlineStr">
         <is>
-          <t>CN0343751</t>
+          <t>CN0343757</t>
         </is>
       </c>
       <c r="R70" s="0"/>
       <c r="S70" s="0" t="inlineStr">
         <is>
-          <t>2018-15522</t>
+          <t>2018-15574</t>
         </is>
       </c>
       <c r="T70" s="0" t="d">
@@ -8676,14 +8597,122 @@
       </c>
       <c r="AC70" s="0"/>
     </row>
+    <row r="71">
+      <c r="A71" s="0" t="n">
+        <v>9625</v>
+      </c>
+      <c r="B71" s="0" t="inlineStr">
+        <is>
+          <t>PCIU1970869</t>
+        </is>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D71" s="0" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="E71" s="0" t="inlineStr">
+        <is>
+          <t>SAPL-W</t>
+        </is>
+      </c>
+      <c r="F71" s="0" t="inlineStr">
+        <is>
+          <t>PIL</t>
+        </is>
+      </c>
+      <c r="G71" s="0" t="inlineStr">
+        <is>
+          <t>PIL</t>
+        </is>
+      </c>
+      <c r="H71" s="0" t="inlineStr">
+        <is>
+          <t>KOTA ANGGERIK</t>
+        </is>
+      </c>
+      <c r="I71" s="0" t="inlineStr">
+        <is>
+          <t>2742/2018</t>
+        </is>
+      </c>
+      <c r="J71" s="0" t="inlineStr">
+        <is>
+          <t>SHODESH SHIPPING &amp; LOGISTIC</t>
+        </is>
+      </c>
+      <c r="K71" s="0" t="inlineStr">
+        <is>
+          <t>SOUND</t>
+        </is>
+      </c>
+      <c r="L71" s="0"/>
+      <c r="M71" s="0"/>
+      <c r="N71" s="0"/>
+      <c r="O71" s="0"/>
+      <c r="P71" s="0" t="inlineStr">
+        <is>
+          <t>SODIUM SULPHATE</t>
+        </is>
+      </c>
+      <c r="Q71" s="0" t="inlineStr">
+        <is>
+          <t>CN0343751</t>
+        </is>
+      </c>
+      <c r="R71" s="0"/>
+      <c r="S71" s="0" t="inlineStr">
+        <is>
+          <t>2018-15522</t>
+        </is>
+      </c>
+      <c r="T71" s="0" t="d">
+        <v>2018-09-13T00:00:00</v>
+      </c>
+      <c r="U71" s="0" t="d">
+        <v>2018-09-16T00:00:00</v>
+      </c>
+      <c r="V71" s="0" t="inlineStr">
+        <is>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="W71" s="0" t="inlineStr">
+        <is>
+          <t>SAPL</t>
+        </is>
+      </c>
+      <c r="X71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="0" t="inlineStr">
+        <is>
+          <t>WUAN80023800</t>
+        </is>
+      </c>
+      <c r="Z71" s="0" t="n">
+        <v>178</v>
+      </c>
+      <c r="AA71" s="0"/>
+      <c r="AB71" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC71" s="0"/>
+    </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -8874,12 +8903,13 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -8893,7 +8923,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -8951,148 +8981,156 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Total number of conatiners:1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>Container Number</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Size</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>Height</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>Company</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>Agent</t>
         </is>
       </c>
-      <c r="H6" s="4" t="inlineStr">
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>MLO</t>
         </is>
       </c>
-      <c r="I6" s="4" t="inlineStr">
+      <c r="I7" s="4" t="inlineStr">
         <is>
           <t>Vessel</t>
         </is>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>Rotation #</t>
         </is>
       </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="K7" s="4" t="inlineStr">
         <is>
           <t>Line #</t>
         </is>
       </c>
-      <c r="L6" s="4" t="inlineStr">
+      <c r="L7" s="4" t="inlineStr">
         <is>
           <t>BE #</t>
         </is>
       </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="M7" s="4" t="inlineStr">
         <is>
           <t>BL #</t>
         </is>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="N7" s="4" t="inlineStr">
         <is>
           <t>Importer</t>
         </is>
       </c>
-      <c r="O6" s="4" t="inlineStr">
+      <c r="O7" s="4" t="inlineStr">
         <is>
           <t>CNF</t>
         </is>
       </c>
-      <c r="P6" s="4" t="inlineStr">
+      <c r="P7" s="4" t="inlineStr">
         <is>
           <t>EIR #</t>
         </is>
       </c>
-      <c r="Q6" s="4" t="inlineStr">
+      <c r="Q7" s="4" t="inlineStr">
         <is>
           <t>Location - From</t>
         </is>
       </c>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="R7" s="4" t="inlineStr">
         <is>
           <t>Depo Loc</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="S7" s="4" t="inlineStr">
         <is>
           <t>Seal Number</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T7" s="4" t="inlineStr">
         <is>
           <t>Amended Seal No</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="U7" s="4" t="inlineStr">
         <is>
           <t>Issue Date</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
-      <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
-      <c r="L7" s="0"/>
-      <c r="M7" s="0"/>
-      <c r="N7" s="0"/>
-      <c r="O7" s="0"/>
-      <c r="P7" s="0"/>
-      <c r="Q7" s="0"/>
-      <c r="R7" s="0"/>
-      <c r="S7" s="0"/>
-      <c r="T7" s="0"/>
-      <c r="U7" s="0"/>
-      <c r="V7" s="0"/>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
+      <c r="V8" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
